--- a/Code/Results/Cases/Case_4_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02320068295013</v>
+        <v>1.054980614499226</v>
       </c>
       <c r="D2">
-        <v>1.043522054237202</v>
+        <v>1.061298055451379</v>
       </c>
       <c r="E2">
-        <v>1.041944423288577</v>
+        <v>1.068181144196707</v>
       </c>
       <c r="F2">
-        <v>1.050819687662735</v>
+        <v>1.074559391268119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0604171307497</v>
+        <v>1.047634003066163</v>
       </c>
       <c r="J2">
-        <v>1.044708937181651</v>
+        <v>1.059989869599541</v>
       </c>
       <c r="K2">
-        <v>1.054406612781067</v>
+        <v>1.064022496618958</v>
       </c>
       <c r="L2">
-        <v>1.052848770359851</v>
+        <v>1.070887014890782</v>
       </c>
       <c r="M2">
-        <v>1.061613672693779</v>
+        <v>1.077248283110919</v>
       </c>
       <c r="N2">
-        <v>1.046192543702239</v>
+        <v>1.061495176796909</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028558485497165</v>
+        <v>1.056105691083205</v>
       </c>
       <c r="D3">
-        <v>1.047755429302148</v>
+        <v>1.062194530472678</v>
       </c>
       <c r="E3">
-        <v>1.046802244103456</v>
+        <v>1.069249192992797</v>
       </c>
       <c r="F3">
-        <v>1.055625881605744</v>
+        <v>1.075606001507586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062197873442143</v>
+        <v>1.047913896951509</v>
       </c>
       <c r="J3">
-        <v>1.048299776567266</v>
+        <v>1.060765593610772</v>
       </c>
       <c r="K3">
-        <v>1.057811666394578</v>
+        <v>1.064733358819364</v>
       </c>
       <c r="L3">
-        <v>1.056869355544444</v>
+        <v>1.071770365487352</v>
       </c>
       <c r="M3">
-        <v>1.065593253246985</v>
+        <v>1.078111478125053</v>
       </c>
       <c r="N3">
-        <v>1.049788482491657</v>
+        <v>1.062272002425213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031947722152097</v>
+        <v>1.056833840751527</v>
       </c>
       <c r="D4">
-        <v>1.050434066707176</v>
+        <v>1.06277443419167</v>
       </c>
       <c r="E4">
-        <v>1.04987997861129</v>
+        <v>1.069940695649012</v>
       </c>
       <c r="F4">
-        <v>1.058669715496477</v>
+        <v>1.076283446202158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06331051751536</v>
+        <v>1.048093338395268</v>
       </c>
       <c r="J4">
-        <v>1.050568062285268</v>
+        <v>1.061267113344771</v>
       </c>
       <c r="K4">
-        <v>1.059959641137432</v>
+        <v>1.065192522865719</v>
       </c>
       <c r="L4">
-        <v>1.059411480076999</v>
+        <v>1.072341753039275</v>
       </c>
       <c r="M4">
-        <v>1.068108087985334</v>
+        <v>1.078669632416698</v>
       </c>
       <c r="N4">
-        <v>1.052059989435554</v>
+        <v>1.06277423437476</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03335473349701</v>
+        <v>1.057139991260612</v>
       </c>
       <c r="D5">
-        <v>1.051546182186842</v>
+        <v>1.063018183394105</v>
       </c>
       <c r="E5">
-        <v>1.051158772116495</v>
+        <v>1.070231499949235</v>
       </c>
       <c r="F5">
-        <v>1.05993412956927</v>
+        <v>1.076568295971339</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063769056009339</v>
+        <v>1.048168375950903</v>
       </c>
       <c r="J5">
-        <v>1.051508911657593</v>
+        <v>1.061477850362543</v>
       </c>
       <c r="K5">
-        <v>1.060849863477843</v>
+        <v>1.065385361052565</v>
       </c>
       <c r="L5">
-        <v>1.060466483626994</v>
+        <v>1.07258191660274</v>
       </c>
       <c r="M5">
-        <v>1.069151431623309</v>
+        <v>1.07890418686091</v>
       </c>
       <c r="N5">
-        <v>1.053002174921905</v>
+        <v>1.062985270663269</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03358995294167</v>
+        <v>1.057191397426798</v>
       </c>
       <c r="D6">
-        <v>1.051732106213371</v>
+        <v>1.063059107467522</v>
       </c>
       <c r="E6">
-        <v>1.051372619862273</v>
+        <v>1.070280332932942</v>
       </c>
       <c r="F6">
-        <v>1.0601455552045</v>
+        <v>1.076616126547272</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063845513619097</v>
+        <v>1.048180951647729</v>
       </c>
       <c r="J6">
-        <v>1.051666150996447</v>
+        <v>1.061513228061037</v>
       </c>
       <c r="K6">
-        <v>1.060998598768173</v>
+        <v>1.065417728030007</v>
       </c>
       <c r="L6">
-        <v>1.060642834511311</v>
+        <v>1.072622238319829</v>
       </c>
       <c r="M6">
-        <v>1.069325813605732</v>
+        <v>1.078943564091065</v>
       </c>
       <c r="N6">
-        <v>1.053159637558656</v>
+        <v>1.063020698602153</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03196659176972</v>
+        <v>1.056837931405995</v>
       </c>
       <c r="D7">
-        <v>1.050448981110346</v>
+        <v>1.06277769134711</v>
       </c>
       <c r="E7">
-        <v>1.049897124396868</v>
+        <v>1.06994458101087</v>
       </c>
       <c r="F7">
-        <v>1.058686669656511</v>
+        <v>1.076287252174498</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063316680403466</v>
+        <v>1.048094342621224</v>
       </c>
       <c r="J7">
-        <v>1.050580683391798</v>
+        <v>1.061269929623429</v>
       </c>
       <c r="K7">
-        <v>1.059971585985441</v>
+        <v>1.065195100342974</v>
       </c>
       <c r="L7">
-        <v>1.059425630259969</v>
+        <v>1.072344962304296</v>
       </c>
       <c r="M7">
-        <v>1.06812208311155</v>
+        <v>1.078672766912669</v>
       </c>
       <c r="N7">
-        <v>1.052072628465503</v>
+        <v>1.062777054652857</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025027920108634</v>
+        <v>1.055360808667362</v>
       </c>
       <c r="D8">
-        <v>1.044965629891008</v>
+        <v>1.06160105956094</v>
       </c>
       <c r="E8">
-        <v>1.043600113444653</v>
+        <v>1.068542012673788</v>
       </c>
       <c r="F8">
-        <v>1.052458026951412</v>
+        <v>1.074913052899707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06102730952082</v>
+        <v>1.047728939919444</v>
       </c>
       <c r="J8">
-        <v>1.045934213530802</v>
+        <v>1.060252117282131</v>
       </c>
       <c r="K8">
-        <v>1.055569105822953</v>
+        <v>1.06426290373402</v>
       </c>
       <c r="L8">
-        <v>1.054220186981517</v>
+        <v>1.071185588615852</v>
       </c>
       <c r="M8">
-        <v>1.062971384606376</v>
+        <v>1.077540084719883</v>
       </c>
       <c r="N8">
-        <v>1.047419560084347</v>
+        <v>1.061757796901289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012170118225448</v>
+        <v>1.052759054565187</v>
       </c>
       <c r="D9">
-        <v>1.034813226551949</v>
+        <v>1.059526351561621</v>
       </c>
       <c r="E9">
-        <v>1.031971843767013</v>
+        <v>1.066073601435097</v>
       </c>
       <c r="F9">
-        <v>1.040946889026726</v>
+        <v>1.072493212540329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056676889868523</v>
+        <v>1.047072280631854</v>
       </c>
       <c r="J9">
-        <v>1.03730031848985</v>
+        <v>1.058455341743202</v>
       </c>
       <c r="K9">
-        <v>1.047365650926229</v>
+        <v>1.062614046125304</v>
       </c>
       <c r="L9">
-        <v>1.044566655301249</v>
+        <v>1.069141098309517</v>
       </c>
       <c r="M9">
-        <v>1.053408814079077</v>
+        <v>1.075541166592108</v>
       </c>
       <c r="N9">
-        <v>1.038773403922115</v>
+        <v>1.059958469735002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003118916427842</v>
+        <v>1.051025272942602</v>
       </c>
       <c r="D10">
-        <v>1.0276769241323</v>
+        <v>1.058142330525983</v>
       </c>
       <c r="E10">
-        <v>1.023817147025856</v>
+        <v>1.064430072802862</v>
       </c>
       <c r="F10">
-        <v>1.032868713848754</v>
+        <v>1.070881115616892</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053544590545817</v>
+        <v>1.046625927175618</v>
       </c>
       <c r="J10">
-        <v>1.031209333829301</v>
+        <v>1.05725529559908</v>
       </c>
       <c r="K10">
-        <v>1.041563819406113</v>
+        <v>1.061510638822347</v>
       </c>
       <c r="L10">
-        <v>1.037769290971611</v>
+        <v>1.067777077360804</v>
       </c>
       <c r="M10">
-        <v>1.046668833485341</v>
+        <v>1.074206548566483</v>
       </c>
       <c r="N10">
-        <v>1.032673769364702</v>
+        <v>1.058756719387708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9990723372344708</v>
+        <v>1.05027468863476</v>
       </c>
       <c r="D11">
-        <v>1.024490042098381</v>
+        <v>1.057542826762052</v>
       </c>
       <c r="E11">
-        <v>1.020179582360523</v>
+        <v>1.063718898560835</v>
       </c>
       <c r="F11">
-        <v>1.029264083619619</v>
+        <v>1.070183327697751</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052128454431067</v>
+        <v>1.046430617005897</v>
       </c>
       <c r="J11">
-        <v>1.028483759049553</v>
+        <v>1.056735139836062</v>
       </c>
       <c r="K11">
-        <v>1.038964432686712</v>
+        <v>1.061031862664471</v>
       </c>
       <c r="L11">
-        <v>1.034730717753718</v>
+        <v>1.067186196225627</v>
       </c>
       <c r="M11">
-        <v>1.043654447464553</v>
+        <v>1.07362816801777</v>
       </c>
       <c r="N11">
-        <v>1.029944323956139</v>
+        <v>1.058235824943845</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975488490643696</v>
+        <v>1.049995910561144</v>
       </c>
       <c r="D12">
-        <v>1.023290860488323</v>
+        <v>1.057320112335027</v>
       </c>
       <c r="E12">
-        <v>1.018811394994927</v>
+        <v>1.063454809346773</v>
       </c>
       <c r="F12">
-        <v>1.027908115845566</v>
+        <v>1.069924177223712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051593002198908</v>
+        <v>1.046357764202477</v>
       </c>
       <c r="J12">
-        <v>1.027457309497846</v>
+        <v>1.056541851268934</v>
       </c>
       <c r="K12">
-        <v>1.037985046112201</v>
+        <v>1.060853874522439</v>
       </c>
       <c r="L12">
-        <v>1.033586859539682</v>
+        <v>1.06696667871935</v>
       </c>
       <c r="M12">
-        <v>1.042519484905968</v>
+        <v>1.073413259140686</v>
       </c>
       <c r="N12">
-        <v>1.028916416728333</v>
+        <v>1.05804226188478</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9978765876635259</v>
+        <v>1.050055708406408</v>
       </c>
       <c r="D13">
-        <v>1.02354880236884</v>
+        <v>1.057367886784702</v>
       </c>
       <c r="E13">
-        <v>1.019105664120755</v>
+        <v>1.063511454099626</v>
       </c>
       <c r="F13">
-        <v>1.028199764168271</v>
+        <v>1.069979764116229</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05170829312534</v>
+        <v>1.046373405219175</v>
       </c>
       <c r="J13">
-        <v>1.027678135909805</v>
+        <v>1.056583315926882</v>
       </c>
       <c r="K13">
-        <v>1.038195767965612</v>
+        <v>1.060892060343491</v>
       </c>
       <c r="L13">
-        <v>1.033832923699271</v>
+        <v>1.067013767690272</v>
       </c>
       <c r="M13">
-        <v>1.042763644740734</v>
+        <v>1.073459361111638</v>
       </c>
       <c r="N13">
-        <v>1.029137556739126</v>
+        <v>1.058083785427298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9989468293193366</v>
+        <v>1.050251644301132</v>
       </c>
       <c r="D14">
-        <v>1.0243912375594</v>
+        <v>1.057524417771332</v>
       </c>
       <c r="E14">
-        <v>1.020066841308783</v>
+        <v>1.063697067385042</v>
       </c>
       <c r="F14">
-        <v>1.02915235282281</v>
+        <v>1.070161905443366</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052084388998604</v>
+        <v>1.046424601210907</v>
       </c>
       <c r="J14">
-        <v>1.028399203932006</v>
+        <v>1.0567191641672</v>
       </c>
       <c r="K14">
-        <v>1.038883763645327</v>
+        <v>1.061017153156576</v>
       </c>
       <c r="L14">
-        <v>1.034636481459292</v>
+        <v>1.067168051615423</v>
       </c>
       <c r="M14">
-        <v>1.043560948228473</v>
+        <v>1.073610405064638</v>
       </c>
       <c r="N14">
-        <v>1.029859648760627</v>
+        <v>1.0582198265877</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9996034961930259</v>
+        <v>1.050372369809369</v>
       </c>
       <c r="D15">
-        <v>1.02490821708325</v>
+        <v>1.057620857434487</v>
       </c>
       <c r="E15">
-        <v>1.020656764901216</v>
+        <v>1.063811439464889</v>
       </c>
       <c r="F15">
-        <v>1.029736983433979</v>
+        <v>1.070274133893897</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05231484967128</v>
+        <v>1.04645610421507</v>
       </c>
       <c r="J15">
-        <v>1.028841590700274</v>
+        <v>1.056802854202029</v>
       </c>
       <c r="K15">
-        <v>1.039305800144025</v>
+        <v>1.061094207172826</v>
       </c>
       <c r="L15">
-        <v>1.035129538508382</v>
+        <v>1.067263105999075</v>
       </c>
       <c r="M15">
-        <v>1.044050140418556</v>
+        <v>1.073703458605798</v>
       </c>
       <c r="N15">
-        <v>1.030302663768848</v>
+        <v>1.058303635471977</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003384685027002</v>
+        <v>1.051075089933999</v>
       </c>
       <c r="D16">
-        <v>1.0278863131955</v>
+        <v>1.058182113121478</v>
       </c>
       <c r="E16">
-        <v>1.024056229867204</v>
+        <v>1.06447728128372</v>
       </c>
       <c r="F16">
-        <v>1.033105608082797</v>
+        <v>1.070927430983712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053637276933969</v>
+        <v>1.046638846368671</v>
       </c>
       <c r="J16">
-        <v>1.03138829683759</v>
+        <v>1.057289805481089</v>
       </c>
       <c r="K16">
-        <v>1.041734432054667</v>
+        <v>1.06154239267887</v>
       </c>
       <c r="L16">
-        <v>1.037968870079939</v>
+        <v>1.067816286887014</v>
       </c>
       <c r="M16">
-        <v>1.046866794341619</v>
+        <v>1.07424492360756</v>
       </c>
       <c r="N16">
-        <v>1.03285298652099</v>
+        <v>1.058791278277708</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005721562802986</v>
+        <v>1.051515928476404</v>
       </c>
       <c r="D17">
-        <v>1.029727870624535</v>
+        <v>1.058534116851721</v>
       </c>
       <c r="E17">
-        <v>1.026159403631697</v>
+        <v>1.064895075821304</v>
       </c>
       <c r="F17">
-        <v>1.035189394013484</v>
+        <v>1.071337296685991</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054450478020752</v>
+        <v>1.046752930553519</v>
       </c>
       <c r="J17">
-        <v>1.032961631590113</v>
+        <v>1.057595115652703</v>
       </c>
       <c r="K17">
-        <v>1.043233994548113</v>
+        <v>1.061823261547899</v>
       </c>
       <c r="L17">
-        <v>1.03972380017705</v>
+        <v>1.068163215269014</v>
       </c>
       <c r="M17">
-        <v>1.048607329745511</v>
+        <v>1.0745844411091</v>
       </c>
       <c r="N17">
-        <v>1.034428555589326</v>
+        <v>1.059097022024785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007072428462397</v>
+        <v>1.051773077112169</v>
       </c>
       <c r="D18">
-        <v>1.03079274216428</v>
+        <v>1.058739414067687</v>
       </c>
       <c r="E18">
-        <v>1.027375944867792</v>
+        <v>1.065138815069245</v>
       </c>
       <c r="F18">
-        <v>1.036394606180411</v>
+        <v>1.071576389577651</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054919063874268</v>
+        <v>1.04681927746671</v>
       </c>
       <c r="J18">
-        <v>1.033870885093861</v>
+        <v>1.057773146996153</v>
       </c>
       <c r="K18">
-        <v>1.044100309633967</v>
+        <v>1.061986991754119</v>
       </c>
       <c r="L18">
-        <v>1.040738292518294</v>
+        <v>1.068365548515887</v>
       </c>
       <c r="M18">
-        <v>1.049613361416785</v>
+        <v>1.074782429414842</v>
       </c>
       <c r="N18">
-        <v>1.035339100337342</v>
+        <v>1.059275306193163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007531007143335</v>
+        <v>1.05186076071754</v>
       </c>
       <c r="D19">
-        <v>1.031154287910007</v>
+        <v>1.058809411616723</v>
       </c>
       <c r="E19">
-        <v>1.027789053026746</v>
+        <v>1.065221931792615</v>
       </c>
       <c r="F19">
-        <v>1.036803847478238</v>
+        <v>1.071657918347007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05507787882776</v>
+        <v>1.046841866726137</v>
       </c>
       <c r="J19">
-        <v>1.034179507895232</v>
+        <v>1.057833842455208</v>
       </c>
       <c r="K19">
-        <v>1.044394305841673</v>
+        <v>1.062042803267761</v>
       </c>
       <c r="L19">
-        <v>1.041082685455277</v>
+        <v>1.068434534824868</v>
       </c>
       <c r="M19">
-        <v>1.049954858239397</v>
+        <v>1.074849930426557</v>
       </c>
       <c r="N19">
-        <v>1.03564816141849</v>
+        <v>1.059336087846732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005472108256575</v>
+        <v>1.051468629130261</v>
       </c>
       <c r="D20">
-        <v>1.029531254755413</v>
+        <v>1.058496352313569</v>
       </c>
       <c r="E20">
-        <v>1.025934815652361</v>
+        <v>1.064850245585992</v>
       </c>
       <c r="F20">
-        <v>1.034966888170386</v>
+        <v>1.071293319373296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054363826131552</v>
+        <v>1.04674071072103</v>
       </c>
       <c r="J20">
-        <v>1.032793706899348</v>
+        <v>1.057562364028699</v>
       </c>
       <c r="K20">
-        <v>1.043073975137087</v>
+        <v>1.061793136891475</v>
       </c>
       <c r="L20">
-        <v>1.039536463162537</v>
+        <v>1.068125995642434</v>
       </c>
       <c r="M20">
-        <v>1.048421543742235</v>
+        <v>1.074548018905933</v>
       </c>
       <c r="N20">
-        <v>1.034260392426239</v>
+        <v>1.059064223889718</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9986322439971135</v>
+        <v>1.050193945453464</v>
       </c>
       <c r="D21">
-        <v>1.024143594870222</v>
+        <v>1.057478324181231</v>
       </c>
       <c r="E21">
-        <v>1.019784277500896</v>
+        <v>1.063642406897471</v>
       </c>
       <c r="F21">
-        <v>1.028872318363406</v>
+        <v>1.070108268286026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051973902405515</v>
+        <v>1.046409533711977</v>
       </c>
       <c r="J21">
-        <v>1.028187262042697</v>
+        <v>1.056679162444539</v>
       </c>
       <c r="K21">
-        <v>1.038681555091714</v>
+        <v>1.060980320564812</v>
       </c>
       <c r="L21">
-        <v>1.034400280702313</v>
+        <v>1.067122619894135</v>
       </c>
       <c r="M21">
-        <v>1.043326591551875</v>
+        <v>1.073565928390204</v>
       </c>
       <c r="N21">
-        <v>1.029647405889525</v>
+        <v>1.058179768058004</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9942129585309166</v>
+        <v>1.049392630162859</v>
       </c>
       <c r="D22">
-        <v>1.020666382118727</v>
+        <v>1.056838064155958</v>
       </c>
       <c r="E22">
-        <v>1.015818063004572</v>
+        <v>1.062883410497019</v>
       </c>
       <c r="F22">
-        <v>1.024941223333675</v>
+        <v>1.06936340536772</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050416417769097</v>
+        <v>1.046199539679904</v>
       </c>
       <c r="J22">
-        <v>1.025209268882982</v>
+        <v>1.056123398137715</v>
       </c>
       <c r="K22">
-        <v>1.035839258107456</v>
+        <v>1.060468406482503</v>
       </c>
       <c r="L22">
-        <v>1.031082541655149</v>
+        <v>1.066491538094391</v>
       </c>
       <c r="M22">
-        <v>1.040034269438136</v>
+        <v>1.072948029049129</v>
       </c>
       <c r="N22">
-        <v>1.026665183637943</v>
+        <v>1.057623214502118</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.99656742075403</v>
+        <v>1.049817410627716</v>
       </c>
       <c r="D23">
-        <v>1.022518543774576</v>
+        <v>1.05717749566363</v>
       </c>
       <c r="E23">
-        <v>1.017930391153489</v>
+        <v>1.063285729141037</v>
       </c>
       <c r="F23">
-        <v>1.027034934729699</v>
+        <v>1.069758249943579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051247427906651</v>
+        <v>1.046311029255474</v>
       </c>
       <c r="J23">
-        <v>1.026795995218639</v>
+        <v>1.056418063038767</v>
       </c>
       <c r="K23">
-        <v>1.037353926603458</v>
+        <v>1.060739863771807</v>
       </c>
       <c r="L23">
-        <v>1.032850033685494</v>
+        <v>1.06682610739201</v>
       </c>
       <c r="M23">
-        <v>1.041788331588757</v>
+        <v>1.0732756290492</v>
       </c>
       <c r="N23">
-        <v>1.028254163306997</v>
+        <v>1.057918297861128</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005584863622594</v>
+        <v>1.051490001622228</v>
       </c>
       <c r="D24">
-        <v>1.029620125609463</v>
+        <v>1.05851341654633</v>
       </c>
       <c r="E24">
-        <v>1.026036328752177</v>
+        <v>1.064870502294952</v>
       </c>
       <c r="F24">
-        <v>1.035067460506939</v>
+        <v>1.071313190749994</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054402998097499</v>
+        <v>1.046746232944283</v>
       </c>
       <c r="J24">
-        <v>1.032869610880256</v>
+        <v>1.057577163234948</v>
       </c>
       <c r="K24">
-        <v>1.043146306782198</v>
+        <v>1.061806749223031</v>
       </c>
       <c r="L24">
-        <v>1.039621140841042</v>
+        <v>1.068142813664203</v>
       </c>
       <c r="M24">
-        <v>1.0485055207856</v>
+        <v>1.074564476675299</v>
       </c>
       <c r="N24">
-        <v>1.034336404199506</v>
+        <v>1.059079044112538</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015574354010055</v>
+        <v>1.053431540683224</v>
       </c>
       <c r="D25">
-        <v>1.037499731259137</v>
+        <v>1.060062869803824</v>
       </c>
       <c r="E25">
-        <v>1.035045490870017</v>
+        <v>1.066711378413663</v>
       </c>
       <c r="F25">
-        <v>1.043990584396475</v>
+        <v>1.073118600406161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05784096070703</v>
+        <v>1.047243555709897</v>
       </c>
       <c r="J25">
-        <v>1.039588711347086</v>
+        <v>1.058920238019683</v>
       </c>
       <c r="K25">
-        <v>1.049542523438727</v>
+        <v>1.063041050492993</v>
       </c>
       <c r="L25">
-        <v>1.047123082814912</v>
+        <v>1.069669829020623</v>
       </c>
       <c r="M25">
-        <v>1.055942335041371</v>
+        <v>1.076058288580056</v>
       </c>
       <c r="N25">
-        <v>1.04106504655969</v>
+        <v>1.06042402621752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054980614499226</v>
+        <v>1.023200682950129</v>
       </c>
       <c r="D2">
-        <v>1.061298055451379</v>
+        <v>1.043522054237202</v>
       </c>
       <c r="E2">
-        <v>1.068181144196707</v>
+        <v>1.041944423288576</v>
       </c>
       <c r="F2">
-        <v>1.074559391268119</v>
+        <v>1.050819687662734</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047634003066163</v>
+        <v>1.0604171307497</v>
       </c>
       <c r="J2">
-        <v>1.059989869599541</v>
+        <v>1.04470893718165</v>
       </c>
       <c r="K2">
-        <v>1.064022496618958</v>
+        <v>1.054406612781066</v>
       </c>
       <c r="L2">
-        <v>1.070887014890782</v>
+        <v>1.05284877035985</v>
       </c>
       <c r="M2">
-        <v>1.077248283110919</v>
+        <v>1.061613672693778</v>
       </c>
       <c r="N2">
-        <v>1.061495176796909</v>
+        <v>1.046192543702238</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056105691083205</v>
+        <v>1.028558485497164</v>
       </c>
       <c r="D3">
-        <v>1.062194530472678</v>
+        <v>1.047755429302147</v>
       </c>
       <c r="E3">
-        <v>1.069249192992797</v>
+        <v>1.046802244103455</v>
       </c>
       <c r="F3">
-        <v>1.075606001507586</v>
+        <v>1.055625881605743</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047913896951509</v>
+        <v>1.062197873442142</v>
       </c>
       <c r="J3">
-        <v>1.060765593610772</v>
+        <v>1.048299776567266</v>
       </c>
       <c r="K3">
-        <v>1.064733358819364</v>
+        <v>1.057811666394577</v>
       </c>
       <c r="L3">
-        <v>1.071770365487352</v>
+        <v>1.056869355544444</v>
       </c>
       <c r="M3">
-        <v>1.078111478125053</v>
+        <v>1.065593253246984</v>
       </c>
       <c r="N3">
-        <v>1.062272002425213</v>
+        <v>1.049788482491656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056833840751527</v>
+        <v>1.031947722152097</v>
       </c>
       <c r="D4">
-        <v>1.06277443419167</v>
+        <v>1.050434066707176</v>
       </c>
       <c r="E4">
-        <v>1.069940695649012</v>
+        <v>1.049879978611289</v>
       </c>
       <c r="F4">
-        <v>1.076283446202158</v>
+        <v>1.058669715496477</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048093338395268</v>
+        <v>1.06331051751536</v>
       </c>
       <c r="J4">
-        <v>1.061267113344771</v>
+        <v>1.050568062285268</v>
       </c>
       <c r="K4">
-        <v>1.065192522865719</v>
+        <v>1.059959641137432</v>
       </c>
       <c r="L4">
-        <v>1.072341753039275</v>
+        <v>1.059411480076999</v>
       </c>
       <c r="M4">
-        <v>1.078669632416698</v>
+        <v>1.068108087985333</v>
       </c>
       <c r="N4">
-        <v>1.06277423437476</v>
+        <v>1.052059989435554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057139991260612</v>
+        <v>1.033354733497011</v>
       </c>
       <c r="D5">
-        <v>1.063018183394105</v>
+        <v>1.051546182186842</v>
       </c>
       <c r="E5">
-        <v>1.070231499949235</v>
+        <v>1.051158772116496</v>
       </c>
       <c r="F5">
-        <v>1.076568295971339</v>
+        <v>1.059934129569271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048168375950903</v>
+        <v>1.063769056009339</v>
       </c>
       <c r="J5">
-        <v>1.061477850362543</v>
+        <v>1.051508911657594</v>
       </c>
       <c r="K5">
-        <v>1.065385361052565</v>
+        <v>1.060849863477843</v>
       </c>
       <c r="L5">
-        <v>1.07258191660274</v>
+        <v>1.060466483626995</v>
       </c>
       <c r="M5">
-        <v>1.07890418686091</v>
+        <v>1.06915143162331</v>
       </c>
       <c r="N5">
-        <v>1.062985270663269</v>
+        <v>1.053002174921905</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057191397426798</v>
+        <v>1.033589952941671</v>
       </c>
       <c r="D6">
-        <v>1.063059107467522</v>
+        <v>1.051732106213372</v>
       </c>
       <c r="E6">
-        <v>1.070280332932942</v>
+        <v>1.051372619862273</v>
       </c>
       <c r="F6">
-        <v>1.076616126547272</v>
+        <v>1.0601455552045</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048180951647729</v>
+        <v>1.063845513619097</v>
       </c>
       <c r="J6">
-        <v>1.061513228061037</v>
+        <v>1.051666150996448</v>
       </c>
       <c r="K6">
-        <v>1.065417728030007</v>
+        <v>1.060998598768174</v>
       </c>
       <c r="L6">
-        <v>1.072622238319829</v>
+        <v>1.060642834511311</v>
       </c>
       <c r="M6">
-        <v>1.078943564091065</v>
+        <v>1.069325813605733</v>
       </c>
       <c r="N6">
-        <v>1.063020698602153</v>
+        <v>1.053159637558657</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056837931405995</v>
+        <v>1.031966591769721</v>
       </c>
       <c r="D7">
-        <v>1.06277769134711</v>
+        <v>1.050448981110347</v>
       </c>
       <c r="E7">
-        <v>1.06994458101087</v>
+        <v>1.049897124396869</v>
       </c>
       <c r="F7">
-        <v>1.076287252174498</v>
+        <v>1.058686669656511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048094342621224</v>
+        <v>1.063316680403467</v>
       </c>
       <c r="J7">
-        <v>1.061269929623429</v>
+        <v>1.050580683391798</v>
       </c>
       <c r="K7">
-        <v>1.065195100342974</v>
+        <v>1.059971585985442</v>
       </c>
       <c r="L7">
-        <v>1.072344962304296</v>
+        <v>1.05942563025997</v>
       </c>
       <c r="M7">
-        <v>1.078672766912669</v>
+        <v>1.06812208311155</v>
       </c>
       <c r="N7">
-        <v>1.062777054652857</v>
+        <v>1.052072628465503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055360808667362</v>
+        <v>1.025027920108634</v>
       </c>
       <c r="D8">
-        <v>1.06160105956094</v>
+        <v>1.044965629891009</v>
       </c>
       <c r="E8">
-        <v>1.068542012673788</v>
+        <v>1.043600113444653</v>
       </c>
       <c r="F8">
-        <v>1.074913052899707</v>
+        <v>1.052458026951412</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047728939919444</v>
+        <v>1.06102730952082</v>
       </c>
       <c r="J8">
-        <v>1.060252117282131</v>
+        <v>1.045934213530802</v>
       </c>
       <c r="K8">
-        <v>1.06426290373402</v>
+        <v>1.055569105822953</v>
       </c>
       <c r="L8">
-        <v>1.071185588615852</v>
+        <v>1.054220186981516</v>
       </c>
       <c r="M8">
-        <v>1.077540084719883</v>
+        <v>1.062971384606375</v>
       </c>
       <c r="N8">
-        <v>1.061757796901289</v>
+        <v>1.047419560084347</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052759054565187</v>
+        <v>1.012170118225447</v>
       </c>
       <c r="D9">
-        <v>1.059526351561621</v>
+        <v>1.034813226551949</v>
       </c>
       <c r="E9">
-        <v>1.066073601435097</v>
+        <v>1.031971843767012</v>
       </c>
       <c r="F9">
-        <v>1.072493212540329</v>
+        <v>1.040946889026725</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047072280631854</v>
+        <v>1.056676889868523</v>
       </c>
       <c r="J9">
-        <v>1.058455341743202</v>
+        <v>1.037300318489849</v>
       </c>
       <c r="K9">
-        <v>1.062614046125304</v>
+        <v>1.047365650926228</v>
       </c>
       <c r="L9">
-        <v>1.069141098309517</v>
+        <v>1.044566655301248</v>
       </c>
       <c r="M9">
-        <v>1.075541166592108</v>
+        <v>1.053408814079076</v>
       </c>
       <c r="N9">
-        <v>1.059958469735002</v>
+        <v>1.038773403922115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051025272942602</v>
+        <v>1.003118916427844</v>
       </c>
       <c r="D10">
-        <v>1.058142330525983</v>
+        <v>1.027676924132302</v>
       </c>
       <c r="E10">
-        <v>1.064430072802862</v>
+        <v>1.023817147025857</v>
       </c>
       <c r="F10">
-        <v>1.070881115616892</v>
+        <v>1.032868713848755</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046625927175618</v>
+        <v>1.053544590545818</v>
       </c>
       <c r="J10">
-        <v>1.05725529559908</v>
+        <v>1.031209333829302</v>
       </c>
       <c r="K10">
-        <v>1.061510638822347</v>
+        <v>1.041563819406114</v>
       </c>
       <c r="L10">
-        <v>1.067777077360804</v>
+        <v>1.037769290971612</v>
       </c>
       <c r="M10">
-        <v>1.074206548566483</v>
+        <v>1.046668833485342</v>
       </c>
       <c r="N10">
-        <v>1.058756719387708</v>
+        <v>1.032673769364703</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.05027468863476</v>
+        <v>0.99907233723447</v>
       </c>
       <c r="D11">
-        <v>1.057542826762052</v>
+        <v>1.02449004209838</v>
       </c>
       <c r="E11">
-        <v>1.063718898560835</v>
+        <v>1.020179582360523</v>
       </c>
       <c r="F11">
-        <v>1.070183327697751</v>
+        <v>1.029264083619618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046430617005897</v>
+        <v>1.052128454431067</v>
       </c>
       <c r="J11">
-        <v>1.056735139836062</v>
+        <v>1.028483759049552</v>
       </c>
       <c r="K11">
-        <v>1.061031862664471</v>
+        <v>1.038964432686711</v>
       </c>
       <c r="L11">
-        <v>1.067186196225627</v>
+        <v>1.034730717753717</v>
       </c>
       <c r="M11">
-        <v>1.07362816801777</v>
+        <v>1.043654447464553</v>
       </c>
       <c r="N11">
-        <v>1.058235824943845</v>
+        <v>1.029944323956139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049995910561144</v>
+        <v>0.9975488490643691</v>
       </c>
       <c r="D12">
-        <v>1.057320112335027</v>
+        <v>1.023290860488322</v>
       </c>
       <c r="E12">
-        <v>1.063454809346773</v>
+        <v>1.018811394994926</v>
       </c>
       <c r="F12">
-        <v>1.069924177223712</v>
+        <v>1.027908115845565</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046357764202477</v>
+        <v>1.051593002198908</v>
       </c>
       <c r="J12">
-        <v>1.056541851268934</v>
+        <v>1.027457309497846</v>
       </c>
       <c r="K12">
-        <v>1.060853874522439</v>
+        <v>1.0379850461122</v>
       </c>
       <c r="L12">
-        <v>1.06696667871935</v>
+        <v>1.033586859539682</v>
       </c>
       <c r="M12">
-        <v>1.073413259140686</v>
+        <v>1.042519484905967</v>
       </c>
       <c r="N12">
-        <v>1.05804226188478</v>
+        <v>1.028916416728333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050055708406408</v>
+        <v>0.9978765876635263</v>
       </c>
       <c r="D13">
-        <v>1.057367886784702</v>
+        <v>1.023548802368841</v>
       </c>
       <c r="E13">
-        <v>1.063511454099626</v>
+        <v>1.019105664120755</v>
       </c>
       <c r="F13">
-        <v>1.069979764116229</v>
+        <v>1.028199764168271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046373405219175</v>
+        <v>1.051708293125341</v>
       </c>
       <c r="J13">
-        <v>1.056583315926882</v>
+        <v>1.027678135909805</v>
       </c>
       <c r="K13">
-        <v>1.060892060343491</v>
+        <v>1.038195767965612</v>
       </c>
       <c r="L13">
-        <v>1.067013767690272</v>
+        <v>1.033832923699272</v>
       </c>
       <c r="M13">
-        <v>1.073459361111638</v>
+        <v>1.042763644740734</v>
       </c>
       <c r="N13">
-        <v>1.058083785427298</v>
+        <v>1.029137556739126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050251644301132</v>
+        <v>0.9989468293193356</v>
       </c>
       <c r="D14">
-        <v>1.057524417771332</v>
+        <v>1.024391237559398</v>
       </c>
       <c r="E14">
-        <v>1.063697067385042</v>
+        <v>1.020066841308782</v>
       </c>
       <c r="F14">
-        <v>1.070161905443366</v>
+        <v>1.029152352822809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046424601210907</v>
+        <v>1.052084388998603</v>
       </c>
       <c r="J14">
-        <v>1.0567191641672</v>
+        <v>1.028399203932005</v>
       </c>
       <c r="K14">
-        <v>1.061017153156576</v>
+        <v>1.038883763645326</v>
       </c>
       <c r="L14">
-        <v>1.067168051615423</v>
+        <v>1.034636481459291</v>
       </c>
       <c r="M14">
-        <v>1.073610405064638</v>
+        <v>1.043560948228472</v>
       </c>
       <c r="N14">
-        <v>1.0582198265877</v>
+        <v>1.029859648760626</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050372369809369</v>
+        <v>0.9996034961930262</v>
       </c>
       <c r="D15">
-        <v>1.057620857434487</v>
+        <v>1.02490821708325</v>
       </c>
       <c r="E15">
-        <v>1.063811439464889</v>
+        <v>1.020656764901216</v>
       </c>
       <c r="F15">
-        <v>1.070274133893897</v>
+        <v>1.029736983433979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04645610421507</v>
+        <v>1.05231484967128</v>
       </c>
       <c r="J15">
-        <v>1.056802854202029</v>
+        <v>1.028841590700274</v>
       </c>
       <c r="K15">
-        <v>1.061094207172826</v>
+        <v>1.039305800144026</v>
       </c>
       <c r="L15">
-        <v>1.067263105999075</v>
+        <v>1.035129538508382</v>
       </c>
       <c r="M15">
-        <v>1.073703458605798</v>
+        <v>1.044050140418556</v>
       </c>
       <c r="N15">
-        <v>1.058303635471977</v>
+        <v>1.030302663768848</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051075089933999</v>
+        <v>1.003384685027003</v>
       </c>
       <c r="D16">
-        <v>1.058182113121478</v>
+        <v>1.027886313195501</v>
       </c>
       <c r="E16">
-        <v>1.06447728128372</v>
+        <v>1.024056229867205</v>
       </c>
       <c r="F16">
-        <v>1.070927430983712</v>
+        <v>1.033105608082798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046638846368671</v>
+        <v>1.05363727693397</v>
       </c>
       <c r="J16">
-        <v>1.057289805481089</v>
+        <v>1.031388296837591</v>
       </c>
       <c r="K16">
-        <v>1.06154239267887</v>
+        <v>1.041734432054668</v>
       </c>
       <c r="L16">
-        <v>1.067816286887014</v>
+        <v>1.037968870079941</v>
       </c>
       <c r="M16">
-        <v>1.07424492360756</v>
+        <v>1.04686679434162</v>
       </c>
       <c r="N16">
-        <v>1.058791278277708</v>
+        <v>1.032852986520991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051515928476404</v>
+        <v>1.005721562802985</v>
       </c>
       <c r="D17">
-        <v>1.058534116851721</v>
+        <v>1.029727870624535</v>
       </c>
       <c r="E17">
-        <v>1.064895075821304</v>
+        <v>1.026159403631696</v>
       </c>
       <c r="F17">
-        <v>1.071337296685991</v>
+        <v>1.035189394013484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046752930553519</v>
+        <v>1.054450478020752</v>
       </c>
       <c r="J17">
-        <v>1.057595115652703</v>
+        <v>1.032961631590113</v>
       </c>
       <c r="K17">
-        <v>1.061823261547899</v>
+        <v>1.043233994548113</v>
       </c>
       <c r="L17">
-        <v>1.068163215269014</v>
+        <v>1.039723800177049</v>
       </c>
       <c r="M17">
-        <v>1.0745844411091</v>
+        <v>1.04860732974551</v>
       </c>
       <c r="N17">
-        <v>1.059097022024785</v>
+        <v>1.034428555589326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051773077112169</v>
+        <v>1.007072428462397</v>
       </c>
       <c r="D18">
-        <v>1.058739414067687</v>
+        <v>1.03079274216428</v>
       </c>
       <c r="E18">
-        <v>1.065138815069245</v>
+        <v>1.027375944867792</v>
       </c>
       <c r="F18">
-        <v>1.071576389577651</v>
+        <v>1.036394606180411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04681927746671</v>
+        <v>1.054919063874268</v>
       </c>
       <c r="J18">
-        <v>1.057773146996153</v>
+        <v>1.033870885093861</v>
       </c>
       <c r="K18">
-        <v>1.061986991754119</v>
+        <v>1.044100309633967</v>
       </c>
       <c r="L18">
-        <v>1.068365548515887</v>
+        <v>1.040738292518294</v>
       </c>
       <c r="M18">
-        <v>1.074782429414842</v>
+        <v>1.049613361416785</v>
       </c>
       <c r="N18">
-        <v>1.059275306193163</v>
+        <v>1.035339100337342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05186076071754</v>
+        <v>1.007531007143336</v>
       </c>
       <c r="D19">
-        <v>1.058809411616723</v>
+        <v>1.031154287910007</v>
       </c>
       <c r="E19">
-        <v>1.065221931792615</v>
+        <v>1.027789053026746</v>
       </c>
       <c r="F19">
-        <v>1.071657918347007</v>
+        <v>1.036803847478239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046841866726137</v>
+        <v>1.05507787882776</v>
       </c>
       <c r="J19">
-        <v>1.057833842455208</v>
+        <v>1.034179507895232</v>
       </c>
       <c r="K19">
-        <v>1.062042803267761</v>
+        <v>1.044394305841673</v>
       </c>
       <c r="L19">
-        <v>1.068434534824868</v>
+        <v>1.041082685455278</v>
       </c>
       <c r="M19">
-        <v>1.074849930426557</v>
+        <v>1.049954858239398</v>
       </c>
       <c r="N19">
-        <v>1.059336087846732</v>
+        <v>1.03564816141849</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051468629130261</v>
+        <v>1.005472108256578</v>
       </c>
       <c r="D20">
-        <v>1.058496352313569</v>
+        <v>1.029531254755415</v>
       </c>
       <c r="E20">
-        <v>1.064850245585992</v>
+        <v>1.025934815652364</v>
       </c>
       <c r="F20">
-        <v>1.071293319373296</v>
+        <v>1.034966888170389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04674071072103</v>
+        <v>1.054363826131553</v>
       </c>
       <c r="J20">
-        <v>1.057562364028699</v>
+        <v>1.032793706899351</v>
       </c>
       <c r="K20">
-        <v>1.061793136891475</v>
+        <v>1.043073975137089</v>
       </c>
       <c r="L20">
-        <v>1.068125995642434</v>
+        <v>1.039536463162539</v>
       </c>
       <c r="M20">
-        <v>1.074548018905933</v>
+        <v>1.048421543742238</v>
       </c>
       <c r="N20">
-        <v>1.059064223889718</v>
+        <v>1.034260392426242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050193945453464</v>
+        <v>0.9986322439971129</v>
       </c>
       <c r="D21">
-        <v>1.057478324181231</v>
+        <v>1.024143594870221</v>
       </c>
       <c r="E21">
-        <v>1.063642406897471</v>
+        <v>1.019784277500895</v>
       </c>
       <c r="F21">
-        <v>1.070108268286026</v>
+        <v>1.028872318363405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046409533711977</v>
+        <v>1.051973902405515</v>
       </c>
       <c r="J21">
-        <v>1.056679162444539</v>
+        <v>1.028187262042697</v>
       </c>
       <c r="K21">
-        <v>1.060980320564812</v>
+        <v>1.038681555091714</v>
       </c>
       <c r="L21">
-        <v>1.067122619894135</v>
+        <v>1.034400280702313</v>
       </c>
       <c r="M21">
-        <v>1.073565928390204</v>
+        <v>1.043326591551875</v>
       </c>
       <c r="N21">
-        <v>1.058179768058004</v>
+        <v>1.029647405889524</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049392630162859</v>
+        <v>0.9942129585309183</v>
       </c>
       <c r="D22">
-        <v>1.056838064155958</v>
+        <v>1.020666382118728</v>
       </c>
       <c r="E22">
-        <v>1.062883410497019</v>
+        <v>1.015818063004573</v>
       </c>
       <c r="F22">
-        <v>1.06936340536772</v>
+        <v>1.024941223333677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046199539679904</v>
+        <v>1.050416417769098</v>
       </c>
       <c r="J22">
-        <v>1.056123398137715</v>
+        <v>1.025209268882984</v>
       </c>
       <c r="K22">
-        <v>1.060468406482503</v>
+        <v>1.035839258107458</v>
       </c>
       <c r="L22">
-        <v>1.066491538094391</v>
+        <v>1.03108254165515</v>
       </c>
       <c r="M22">
-        <v>1.072948029049129</v>
+        <v>1.040034269438138</v>
       </c>
       <c r="N22">
-        <v>1.057623214502118</v>
+        <v>1.026665183637944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049817410627716</v>
+        <v>0.9965674207540302</v>
       </c>
       <c r="D23">
-        <v>1.05717749566363</v>
+        <v>1.022518543774576</v>
       </c>
       <c r="E23">
-        <v>1.063285729141037</v>
+        <v>1.01793039115349</v>
       </c>
       <c r="F23">
-        <v>1.069758249943579</v>
+        <v>1.027034934729699</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046311029255474</v>
+        <v>1.051247427906651</v>
       </c>
       <c r="J23">
-        <v>1.056418063038767</v>
+        <v>1.02679599521864</v>
       </c>
       <c r="K23">
-        <v>1.060739863771807</v>
+        <v>1.037353926603459</v>
       </c>
       <c r="L23">
-        <v>1.06682610739201</v>
+        <v>1.032850033685494</v>
       </c>
       <c r="M23">
-        <v>1.0732756290492</v>
+        <v>1.041788331588757</v>
       </c>
       <c r="N23">
-        <v>1.057918297861128</v>
+        <v>1.028254163306997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051490001622228</v>
+        <v>1.005584863622594</v>
       </c>
       <c r="D24">
-        <v>1.05851341654633</v>
+        <v>1.029620125609463</v>
       </c>
       <c r="E24">
-        <v>1.064870502294952</v>
+        <v>1.026036328752177</v>
       </c>
       <c r="F24">
-        <v>1.071313190749994</v>
+        <v>1.035067460506939</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046746232944283</v>
+        <v>1.0544029980975</v>
       </c>
       <c r="J24">
-        <v>1.057577163234948</v>
+        <v>1.032869610880256</v>
       </c>
       <c r="K24">
-        <v>1.061806749223031</v>
+        <v>1.043146306782198</v>
       </c>
       <c r="L24">
-        <v>1.068142813664203</v>
+        <v>1.039621140841042</v>
       </c>
       <c r="M24">
-        <v>1.074564476675299</v>
+        <v>1.0485055207856</v>
       </c>
       <c r="N24">
-        <v>1.059079044112538</v>
+        <v>1.034336404199506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053431540683224</v>
+        <v>1.015574354010055</v>
       </c>
       <c r="D25">
-        <v>1.060062869803824</v>
+        <v>1.037499731259137</v>
       </c>
       <c r="E25">
-        <v>1.066711378413663</v>
+        <v>1.035045490870017</v>
       </c>
       <c r="F25">
-        <v>1.073118600406161</v>
+        <v>1.043990584396475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047243555709897</v>
+        <v>1.05784096070703</v>
       </c>
       <c r="J25">
-        <v>1.058920238019683</v>
+        <v>1.039588711347086</v>
       </c>
       <c r="K25">
-        <v>1.063041050492993</v>
+        <v>1.049542523438727</v>
       </c>
       <c r="L25">
-        <v>1.069669829020623</v>
+        <v>1.047123082814912</v>
       </c>
       <c r="M25">
-        <v>1.076058288580056</v>
+        <v>1.055942335041372</v>
       </c>
       <c r="N25">
-        <v>1.06042402621752</v>
+        <v>1.041065046559691</v>
       </c>
     </row>
   </sheetData>
